--- a/预注册测试数据.xlsx
+++ b/预注册测试数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41B43F9-9AF7-4CEA-9A79-EB3D6C463127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E002A-DBB1-44B1-B86C-4C0C0CDAA5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="360" windowWidth="38400" windowHeight="20235" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="38400" windowHeight="20235" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增和留存" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,17 @@
     <sheet name="章节结算时间(1组,15关)" sheetId="12" r:id="rId11"/>
     <sheet name="章节结算时间(2组,30关)" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2720,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829D91DC-FF6F-4C57-A859-8F037037EA61}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y57" sqref="Y57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2736,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CE4543-65F4-4E7B-A77B-D8ABEE4BDA40}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2771,304 +2781,304 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>351</v>
+        <v>47</v>
       </c>
       <c r="B5" s="11">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>352</v>
+        <v>50</v>
       </c>
       <c r="B6" s="11">
-        <v>7</v>
+        <v>303</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>25</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="B7" s="11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>4</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>353</v>
+        <v>54</v>
       </c>
       <c r="B8" s="11">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>359</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
       <c r="B9" s="11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>380</v>
+        <v>57</v>
       </c>
       <c r="B10" s="11">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>27</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>381</v>
+        <v>6</v>
       </c>
       <c r="B11" s="11">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="B12" s="11">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>28</v>
+        <v>351</v>
       </c>
       <c r="B13" s="11">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B14" s="11">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>385</v>
+        <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="B16" s="11">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>27</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>387</v>
+        <v>18</v>
       </c>
       <c r="B17" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>350</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B18" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>350</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B19" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="B20" s="11">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B21" s="11">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>350</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="B22" s="11">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>392</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="B23" s="11">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>393</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>50</v>
+        <v>387</v>
       </c>
       <c r="B24" s="11">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="B25" s="11">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>54</v>
+        <v>389</v>
       </c>
       <c r="B26" s="11">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="B27" s="11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>123</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B28" s="11">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>298</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>361</v>
+        <v>72</v>
       </c>
       <c r="B29" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>350</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="B30" s="11">
         <v>1</v>
@@ -3079,7 +3089,7 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>67</v>
+        <v>399</v>
       </c>
       <c r="B31" s="11">
         <v>1</v>
@@ -3090,7 +3100,7 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>70</v>
+        <v>364</v>
       </c>
       <c r="B32" s="11">
         <v>1</v>
@@ -3101,18 +3111,18 @@
     </row>
     <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="B33" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="B34" s="11">
         <v>2</v>
@@ -3123,7 +3133,7 @@
     </row>
     <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="B35" s="11">
         <v>1</v>
@@ -3134,7 +3144,7 @@
     </row>
     <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>397</v>
+        <v>67</v>
       </c>
       <c r="B36" s="11">
         <v>1</v>
@@ -3145,29 +3155,29 @@
     </row>
     <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>398</v>
+        <v>70</v>
       </c>
       <c r="B37" s="11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>359</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B38" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>15</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B39" s="11">
         <v>1</v>
@@ -3178,18 +3188,51 @@
     </row>
     <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="B40" s="11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>15</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B40">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{09307E40-F0BF-4A6F-AE3E-E9066704E487}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{09307E40-F0BF-4A6F-AE3E-E9066704E487}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B40</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3197,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C713591C-CEA6-4725-9FE0-144B5EC33DB0}">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4464,7 +4507,40 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B114">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{53B6040F-6134-47C1-A31A-CC6D3A45BD2F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{53B6040F-6134-47C1-A31A-CC6D3A45BD2F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B114</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4473,7 +4549,7 @@
   <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5970,7 +6046,40 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B135">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{508ABAB9-CE3D-4F62-8B51-998C78CD4383}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{508ABAB9-CE3D-4F62-8B51-998C78CD4383}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B135</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5978,8 +6087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5995,8 +6104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CBBDC8-BBB3-41AF-AF9F-7288EF732231}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6037,7 +6146,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6082,73 +6191,73 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4">
         <v>12</v>
@@ -6159,95 +6268,95 @@
     </row>
     <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B12" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B16" s="4">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4">
         <v>12</v>
@@ -6258,68 +6367,68 @@
     </row>
     <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B23" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B24" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -6335,40 +6444,40 @@
     </row>
     <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B27" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B28" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B29" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B30" s="4">
         <v>3</v>
@@ -6379,18 +6488,18 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B31" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B32" s="4">
         <v>2</v>
@@ -6401,7 +6510,7 @@
     </row>
     <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -6412,51 +6521,51 @@
     </row>
     <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B35" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B36" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B37" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B38" s="4">
         <v>3</v>
@@ -6467,18 +6576,18 @@
     </row>
     <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B40" s="4">
         <v>2</v>
@@ -6489,7 +6598,7 @@
     </row>
     <row r="41" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
@@ -6500,13 +6609,13 @@
     </row>
     <row r="42" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B42" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -6522,18 +6631,18 @@
     </row>
     <row r="44" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B44" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B45" s="4">
         <v>1</v>
@@ -6544,29 +6653,29 @@
     </row>
     <row r="46" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -6577,18 +6686,18 @@
     </row>
     <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -6599,7 +6708,7 @@
     </row>
     <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -6610,62 +6719,95 @@
     </row>
     <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B53" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B54" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B55" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B56" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B56">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63A6056A-5797-4302-BB11-491E384D813E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63A6056A-5797-4302-BB11-491E384D813E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B56</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6674,7 +6816,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7401,7 +7543,40 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B65">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B4556FFC-7E20-4061-AE1F-D98A9960C15A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B4556FFC-7E20-4061-AE1F-D98A9960C15A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B65</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7410,7 +7585,7 @@
   <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8863,7 +9038,40 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B131">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8E7D5020-C6E4-471E-9D22-04A08E8586C4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8E7D5020-C6E4-471E-9D22-04A08E8586C4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B131</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8872,7 +9080,7 @@
   <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10567,7 +10775,40 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B153">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CAE3D66A-F950-40DB-87CB-228657AD8982}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CAE3D66A-F950-40DB-87CB-228657AD8982}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B153</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10576,7 +10817,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10610,167 +10851,167 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3" s="10">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>348</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="B4" s="10">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>350</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>351</v>
+        <v>47</v>
       </c>
       <c r="B5" s="10">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>352</v>
+        <v>50</v>
       </c>
       <c r="B6" s="10">
-        <v>2</v>
+        <v>367</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="B7" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>25</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>353</v>
+        <v>54</v>
       </c>
       <c r="B8" s="10">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>17</v>
+        <v>358</v>
       </c>
       <c r="B9" s="10">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>354</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B10" s="10">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>30</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B11" s="10">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>121</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>47</v>
+        <v>349</v>
       </c>
       <c r="B12" s="10">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>50</v>
+        <v>351</v>
       </c>
       <c r="B13" s="10">
-        <v>367</v>
+        <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B14" s="10">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B16" s="10">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B17" s="10">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -10786,40 +11027,40 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="B19" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B20" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>25</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>364</v>
       </c>
       <c r="B21" s="10">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>208</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="B22" s="10">
         <v>1</v>
@@ -10830,68 +11071,68 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B23" s="10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>350</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B24" s="10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>350</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>365</v>
+        <v>66</v>
       </c>
       <c r="B25" s="10">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B26" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="B27" s="10">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>359</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>367</v>
+        <v>94</v>
       </c>
       <c r="B28" s="10">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>15</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -10907,18 +11148,18 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B30" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>15</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B31" s="10">
         <v>1</v>
@@ -10929,40 +11170,40 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B32" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>7</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B33" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>350</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B34" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>350</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B35" s="10">
         <v>1</v>
@@ -10973,28 +11214,88 @@
     </row>
     <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B36" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>350</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>15</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B17">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{82D1A922-D636-426F-822B-4D21089C6F3A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B37">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{13B38464-15DF-4104-9234-F154135585BD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{82D1A922-D636-426F-822B-4D21089C6F3A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{13B38464-15DF-4104-9234-F154135585BD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B37</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/预注册测试数据.xlsx
+++ b/预注册测试数据.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E002A-DBB1-44B1-B86C-4C0C0CDAA5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5F54DE-496F-4811-8B41-E62DB27A9EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="765" windowWidth="38400" windowHeight="20235" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="585">
   <si>
     <t>游戏关卡时长统计</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1790,13 +1790,21 @@
   </si>
   <si>
     <t>4-6 : 3-5(m)</t>
+  </si>
+  <si>
+    <t>用户总数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1824,8 +1832,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF465160"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1835,6 +1849,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF0F3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1878,7 +1904,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1927,6 +1953,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3238,10 +3283,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C713591C-CEA6-4725-9FE0-144B5EC33DB0}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3603,7 +3648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>542</v>
       </c>
@@ -3614,7 +3659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>174</v>
       </c>
@@ -3625,7 +3670,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>543</v>
       </c>
@@ -3636,7 +3681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>486</v>
       </c>
@@ -3647,7 +3692,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>503</v>
       </c>
@@ -3658,7 +3703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>504</v>
       </c>
@@ -3669,7 +3714,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>505</v>
       </c>
@@ -3680,7 +3725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>506</v>
       </c>
@@ -3691,7 +3736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>507</v>
       </c>
@@ -3702,7 +3747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>515</v>
       </c>
@@ -3713,7 +3758,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>516</v>
       </c>
@@ -3723,8 +3768,38 @@
       <c r="C43" s="15" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>584</v>
+      </c>
+      <c r="I43" t="s">
+        <v>583</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>6</v>
+      </c>
+      <c r="P43">
+        <v>7</v>
+      </c>
+      <c r="Q43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>544</v>
       </c>
@@ -3734,8 +3809,41 @@
       <c r="C44" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H44" s="18">
+        <v>44592</v>
+      </c>
+      <c r="I44" s="19">
+        <v>626</v>
+      </c>
+      <c r="J44" s="20">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="K44" s="20">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="L44" s="20">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M44" s="20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N44" s="20">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O44" s="20">
+        <v>1.6E-2</v>
+      </c>
+      <c r="P44" s="20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q44" s="20">
+        <v>2E-3</v>
+      </c>
+      <c r="R44" s="20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>517</v>
       </c>
@@ -3745,8 +3853,41 @@
       <c r="C45" s="15" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H45" s="21">
+        <v>44593</v>
+      </c>
+      <c r="I45" s="22">
+        <v>423</v>
+      </c>
+      <c r="J45" s="23">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K45" s="23">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="L45" s="23">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M45" s="23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N45" s="23">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O45" s="23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P45" s="23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q45" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R45" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>519</v>
       </c>
@@ -3756,8 +3897,39 @@
       <c r="C46" s="15" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H46" s="18">
+        <v>44594</v>
+      </c>
+      <c r="I46" s="19">
+        <v>207</v>
+      </c>
+      <c r="J46" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="K46" s="20">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="L46" s="20">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M46" s="20">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N46" s="20">
+        <v>2.4E-2</v>
+      </c>
+      <c r="O46" s="20">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P46" s="20">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q46" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="R46" s="19"/>
+    </row>
+    <row r="47" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>520</v>
       </c>
@@ -3767,8 +3939,37 @@
       <c r="C47" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H47" s="21">
+        <v>44595</v>
+      </c>
+      <c r="I47" s="22">
+        <v>175</v>
+      </c>
+      <c r="J47" s="23">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="K47" s="23">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L47" s="23">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M47" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="N47" s="23">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O47" s="23">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="P47" s="23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+    </row>
+    <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>521</v>
       </c>
@@ -3778,8 +3979,35 @@
       <c r="C48" s="15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H48" s="18">
+        <v>44596</v>
+      </c>
+      <c r="I48" s="19">
+        <v>164</v>
+      </c>
+      <c r="J48" s="20">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K48" s="20">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="L48" s="20">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M48" s="20">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N48" s="20">
+        <v>1.2E-2</v>
+      </c>
+      <c r="O48" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+    </row>
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>522</v>
       </c>
@@ -3789,8 +4017,33 @@
       <c r="C49" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H49" s="21">
+        <v>44597</v>
+      </c>
+      <c r="I49" s="22">
+        <v>227</v>
+      </c>
+      <c r="J49" s="23">
+        <v>0.128</v>
+      </c>
+      <c r="K49" s="23">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L49" s="23">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M49" s="23">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N49" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+    </row>
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>523</v>
       </c>
@@ -3800,8 +4053,31 @@
       <c r="C50" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H50" s="18">
+        <v>44598</v>
+      </c>
+      <c r="I50" s="19">
+        <v>292</v>
+      </c>
+      <c r="J50" s="20">
+        <v>0.158</v>
+      </c>
+      <c r="K50" s="20">
+        <v>6.2E-2</v>
+      </c>
+      <c r="L50" s="20">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M50" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+    </row>
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>545</v>
       </c>
@@ -3811,8 +4087,29 @@
       <c r="C51" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H51" s="21">
+        <v>44599</v>
+      </c>
+      <c r="I51" s="22">
+        <v>210</v>
+      </c>
+      <c r="J51" s="23">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K51" s="23">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L51" s="23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+    </row>
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>524</v>
       </c>
@@ -3822,8 +4119,27 @@
       <c r="C52" s="15" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H52" s="18">
+        <v>44600</v>
+      </c>
+      <c r="I52" s="19">
+        <v>327</v>
+      </c>
+      <c r="J52" s="20">
+        <v>0.19</v>
+      </c>
+      <c r="K52" s="20">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+    </row>
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>525</v>
       </c>
@@ -3833,8 +4149,25 @@
       <c r="C53" s="15" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H53" s="21">
+        <v>44601</v>
+      </c>
+      <c r="I53" s="22">
+        <v>550</v>
+      </c>
+      <c r="J53" s="23">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+    </row>
+    <row r="54" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>527</v>
       </c>
@@ -3844,8 +4177,12 @@
       <c r="C54" s="15" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f>SUM(I44:I53)</f>
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>528</v>
       </c>
@@ -3856,7 +4193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>529</v>
       </c>
@@ -3867,7 +4204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>531</v>
       </c>
@@ -3878,7 +4215,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>533</v>
       </c>
@@ -3889,7 +4226,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>535</v>
       </c>
@@ -3900,7 +4237,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>400</v>
       </c>
@@ -3911,7 +4248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>401</v>
       </c>
@@ -3922,7 +4259,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
         <v>402</v>
       </c>
@@ -3933,7 +4270,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>548</v>
       </c>
@@ -3944,7 +4281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>549</v>
       </c>
@@ -4522,6 +4859,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
